--- a/team_specific_matrix/UCLA_A.xlsx
+++ b/team_specific_matrix/UCLA_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1388888888888889</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1111111111111111</v>
+        <v>0.1414141414141414</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08333333333333333</v>
+        <v>0.06060606060606061</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07142857142857142</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7857142857142857</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1428571428571428</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5555555555555556</v>
+        <v>0.7</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4444444444444444</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01851851851851852</v>
+        <v>0.04950495049504951</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1111111111111111</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2407407407407407</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1296296296296296</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1296296296296296</v>
+        <v>0.1188118811881188</v>
       </c>
       <c r="R6">
-        <v>0.05555555555555555</v>
+        <v>0.0396039603960396</v>
       </c>
       <c r="S6">
-        <v>0.3148148148148148</v>
+        <v>0.3564356435643564</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1538461538461539</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03846153846153846</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1538461538461539</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03846153846153846</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1538461538461539</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="R7">
-        <v>0.03846153846153846</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="S7">
-        <v>0.4230769230769231</v>
+        <v>0.3620689655172414</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1363636363636364</v>
+        <v>0.1375</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02272727272727273</v>
+        <v>0.0125</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06818181818181818</v>
+        <v>0.05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06818181818181818</v>
+        <v>0.1</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.04545454545454546</v>
+        <v>0.0625</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.06818181818181818</v>
+        <v>0.125</v>
       </c>
       <c r="R8">
-        <v>0.1136363636363636</v>
+        <v>0.0625</v>
       </c>
       <c r="S8">
-        <v>0.4772727272727273</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.04878048780487805</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04878048780487805</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1219512195121951</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1951219512195122</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04878048780487805</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1463414634146341</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="R9">
-        <v>0.07317073170731707</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="S9">
-        <v>0.3170731707317073</v>
+        <v>0.3174603174603174</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08771929824561403</v>
+        <v>0.1297297297297297</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03508771929824561</v>
+        <v>0.03783783783783784</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1111111111111111</v>
+        <v>0.0945945945945946</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09941520467836257</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03508771929824561</v>
+        <v>0.02972972972972973</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1754385964912281</v>
+        <v>0.2216216216216216</v>
       </c>
       <c r="R10">
-        <v>0.0935672514619883</v>
+        <v>0.05945945945945946</v>
       </c>
       <c r="S10">
-        <v>0.3625730994152047</v>
+        <v>0.3081081081081081</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2093023255813954</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09302325581395349</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="K11">
-        <v>0.2325581395348837</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="L11">
-        <v>0.4651162790697674</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7142857142857143</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1904761904761905</v>
+        <v>0.1914893617021277</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.09523809523809523</v>
+        <v>0.06382978723404255</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04545454545454546</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.06818181818181818</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="I15">
-        <v>0.02272727272727273</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="J15">
-        <v>0.2954545454545455</v>
+        <v>0.3411764705882353</v>
       </c>
       <c r="K15">
-        <v>0.04545454545454546</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02272727272727273</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09090909090909091</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.4090909090909091</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.1</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.06666666666666667</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="I16">
-        <v>0.06666666666666667</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="J16">
-        <v>0.3666666666666666</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="K16">
-        <v>0.1333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.06666666666666667</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06666666666666667</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,22 +1395,22 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02</v>
+        <v>0.03937007874015748</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.14</v>
+        <v>0.1338582677165354</v>
       </c>
       <c r="I17">
-        <v>0.18</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="J17">
-        <v>0.42</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="K17">
-        <v>0.04</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06</v>
+        <v>0.07086614173228346</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.14</v>
+        <v>0.1023622047244094</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1481481481481481</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I18">
-        <v>0.1481481481481481</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="J18">
-        <v>0.2962962962962963</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K18">
-        <v>0.07407407407407407</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03703703703703703</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1111111111111111</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1851851851851852</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.04371584699453552</v>
+        <v>0.06116207951070336</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1420765027322404</v>
+        <v>0.1406727828746177</v>
       </c>
       <c r="I19">
-        <v>0.1311475409836066</v>
+        <v>0.1009174311926606</v>
       </c>
       <c r="J19">
-        <v>0.3825136612021858</v>
+        <v>0.3883792048929663</v>
       </c>
       <c r="K19">
-        <v>0.1311475409836066</v>
+        <v>0.1100917431192661</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02185792349726776</v>
+        <v>0.03363914373088685</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06557377049180328</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08196721311475409</v>
+        <v>0.09174311926605505</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UCLA_A.xlsx
+++ b/team_specific_matrix/UCLA_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.202020202020202</v>
+        <v>0.1824324324324324</v>
       </c>
       <c r="C2">
-        <v>0.5555555555555556</v>
+        <v>0.5709459459459459</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04040404040404041</v>
+        <v>0.02364864864864865</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1414141414141414</v>
+        <v>0.1317567567567567</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06060606060606061</v>
+        <v>0.09121621621621621</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="C3">
-        <v>0.03333333333333333</v>
+        <v>0.05913978494623656</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01666666666666667</v>
+        <v>0.02688172043010753</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7833333333333333</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1666666666666667</v>
+        <v>0.1612903225806452</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05</v>
+        <v>0.0625</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04950495049504951</v>
+        <v>0.08561643835616438</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009900990099009901</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09900990099009901</v>
+        <v>0.1164383561643836</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2574257425742574</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.06930693069306931</v>
+        <v>0.03424657534246575</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1188118811881188</v>
+        <v>0.1438356164383562</v>
       </c>
       <c r="R6">
-        <v>0.0396039603960396</v>
+        <v>0.03767123287671233</v>
       </c>
       <c r="S6">
-        <v>0.3564356435643564</v>
+        <v>0.3424657534246575</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1551724137931035</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05172413793103448</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="F7">
-        <v>0.06896551724137931</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1379310344827586</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01724137931034483</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1896551724137931</v>
+        <v>0.2287234042553191</v>
       </c>
       <c r="R7">
-        <v>0.01724137931034483</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="S7">
-        <v>0.3620689655172414</v>
+        <v>0.3936170212765958</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1375</v>
+        <v>0.1074380165289256</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0125</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05</v>
+        <v>0.07988980716253444</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.09917355371900827</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0625</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.125</v>
+        <v>0.1735537190082645</v>
       </c>
       <c r="R8">
-        <v>0.0625</v>
+        <v>0.07162534435261708</v>
       </c>
       <c r="S8">
-        <v>0.45</v>
+        <v>0.4297520661157025</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.04761904761904762</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03174603174603174</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1111111111111111</v>
+        <v>0.1037735849056604</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1428571428571428</v>
+        <v>0.1273584905660377</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.07936507936507936</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2063492063492063</v>
+        <v>0.1745283018867924</v>
       </c>
       <c r="R9">
-        <v>0.06349206349206349</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="S9">
-        <v>0.3174603174603174</v>
+        <v>0.4386792452830189</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1297297297297297</v>
+        <v>0.1169780666125102</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03783783783783784</v>
+        <v>0.02599512591389114</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0945945945945946</v>
+        <v>0.08042242079610074</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1189189189189189</v>
+        <v>0.1291632818846466</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02972972972972973</v>
+        <v>0.02761982128350934</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2216216216216216</v>
+        <v>0.2120227457351747</v>
       </c>
       <c r="R10">
-        <v>0.05945945945945946</v>
+        <v>0.06742485783915515</v>
       </c>
       <c r="S10">
-        <v>0.3081081081081081</v>
+        <v>0.3403736799350122</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1739130434782609</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.108695652173913</v>
+        <v>0.1359223300970874</v>
       </c>
       <c r="K11">
-        <v>0.2173913043478261</v>
+        <v>0.1844660194174757</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>0.5598705501618123</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.003236245954692557</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.723404255319149</v>
+        <v>0.7403314917127072</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1914893617021277</v>
+        <v>0.1602209944751381</v>
       </c>
       <c r="K12">
-        <v>0.02127659574468085</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.02762430939226519</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.06382978723404255</v>
+        <v>0.04972375690607735</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8333333333333334</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1666666666666667</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02352941176470588</v>
+        <v>0.02397260273972603</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.08235294117647059</v>
+        <v>0.160958904109589</v>
       </c>
       <c r="I15">
-        <v>0.04705882352941176</v>
+        <v>0.07534246575342465</v>
       </c>
       <c r="J15">
-        <v>0.3411764705882353</v>
+        <v>0.3047945205479452</v>
       </c>
       <c r="K15">
-        <v>0.08235294117647059</v>
+        <v>0.07534246575342465</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01176470588235294</v>
+        <v>0.01027397260273973</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1176470588235294</v>
+        <v>0.1267123287671233</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2941176470588235</v>
+        <v>0.2226027397260274</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.04166666666666666</v>
+        <v>0.02</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.04166666666666666</v>
+        <v>0.115</v>
       </c>
       <c r="I16">
-        <v>0.06944444444444445</v>
+        <v>0.09</v>
       </c>
       <c r="J16">
-        <v>0.4861111111111111</v>
+        <v>0.39</v>
       </c>
       <c r="K16">
-        <v>0.1666666666666667</v>
+        <v>0.16</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04166666666666666</v>
+        <v>0.035</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04166666666666666</v>
+        <v>0.06</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1111111111111111</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03937007874015748</v>
+        <v>0.03619909502262444</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1338582677165354</v>
+        <v>0.1719457013574661</v>
       </c>
       <c r="I17">
-        <v>0.1102362204724409</v>
+        <v>0.09276018099547512</v>
       </c>
       <c r="J17">
-        <v>0.4330708661417323</v>
+        <v>0.4208144796380091</v>
       </c>
       <c r="K17">
-        <v>0.1102362204724409</v>
+        <v>0.08597285067873303</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.006787330316742082</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07086614173228346</v>
+        <v>0.08144796380090498</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1023622047244094</v>
+        <v>0.1040723981900453</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02857142857142857</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1428571428571428</v>
+        <v>0.1560283687943262</v>
       </c>
       <c r="I18">
-        <v>0.1714285714285714</v>
+        <v>0.07801418439716312</v>
       </c>
       <c r="J18">
-        <v>0.2857142857142857</v>
+        <v>0.4113475177304964</v>
       </c>
       <c r="K18">
-        <v>0.08571428571428572</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02857142857142857</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1142857142857143</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1428571428571428</v>
+        <v>0.09929078014184398</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.06116207951070336</v>
+        <v>0.03474576271186441</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1406727828746177</v>
+        <v>0.1652542372881356</v>
       </c>
       <c r="I19">
-        <v>0.1009174311926606</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="J19">
-        <v>0.3883792048929663</v>
+        <v>0.3661016949152542</v>
       </c>
       <c r="K19">
-        <v>0.1100917431192661</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03363914373088685</v>
+        <v>0.02372881355932203</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.000847457627118644</v>
       </c>
       <c r="O19">
-        <v>0.07339449541284404</v>
+        <v>0.08559322033898305</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09174311926605505</v>
+        <v>0.1033898305084746</v>
       </c>
     </row>
   </sheetData>
